--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_5.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_5.xlsx
@@ -1319,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>-51786608.799999997</v>
+        <v>-517866608.80000001</v>
       </c>
       <c r="D16" s="1">
         <v>-50601311.959999993</v>
@@ -1391,7 +1391,8 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>1515501800</v>
+        <f>SUM(C12:C17)</f>
+        <v>1049421800.1799999</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D12:D17)</f>
@@ -1505,7 +1506,8 @@
         <v>22</v>
       </c>
       <c r="C21" s="33">
-        <v>112409364</v>
+        <f>SUM(C18:C20)</f>
+        <v>658010364.45999992</v>
       </c>
       <c r="D21" s="33">
         <f>SUM(D18:D20)</f>
@@ -1584,7 +1586,7 @@
       </c>
       <c r="C23" s="33">
         <f>SUM(C21:C22)</f>
-        <v>79033269</v>
+        <v>624634269.45999992</v>
       </c>
       <c r="D23" s="33">
         <f>SUM(D21:D22)</f>
@@ -1632,7 +1634,7 @@
       </c>
       <c r="C25" s="5">
         <f>C23/C26</f>
-        <v>7.8767945398592526E-2</v>
+        <v>0.62253730173953714</v>
       </c>
       <c r="D25" s="5">
         <f>D23/D26</f>
@@ -1727,7 +1729,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="16">
         <f>(D25-C25)/C25</f>
-        <v>12.383500981683509</v>
+        <v>0.6933778451854411</v>
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>0.81832475505937485</v>
+        <v>0.92707862632756366</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
